--- a/webapps/ROOT/image/meetingSignUpInfo.xlsx
+++ b/webapps/ROOT/image/meetingSignUpInfo.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weizhuang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weizhuang/Downloads/chinaventure-security/chinaventure-admin/src/main/webapp/image/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37540" yWindow="2040" windowWidth="27440" windowHeight="15820"/>
+    <workbookView xWindow="35900" yWindow="8180" windowWidth="27440" windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,20 +95,6 @@
     <t>审核状态</t>
     <rPh sb="0" eb="2">
       <t>shen'h</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核时间</t>
-    <rPh sb="0" eb="2">
-      <t>shen</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到状态</t>
-    <rPh sb="0" eb="2">
-      <t>qian'da</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,20 +481,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -544,12 +530,6 @@
       </c>
       <c r="L2" t="s">
         <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
